--- a/_files/requirements/master_data/master-reg_center_user_machine_h.xlsx
+++ b/_files/requirements/master_data/master-reg_center_user_machine_h.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Data Refresh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{68631339-5B26-429B-8052-2710508FD102}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{CEAE03B3-3FF1-42AD-905D-E6DAC9C0CEFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,6 +375,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -536,8 +542,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -895,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2852,13 +2860,13 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>10008</v>
-      </c>
-      <c r="B76">
+      <c r="A76" s="2">
+        <v>33333</v>
+      </c>
+      <c r="B76" s="2">
         <v>110075</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>10072</v>
       </c>
       <c r="D76" t="s">
@@ -2879,7 +2887,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B77">
         <v>110076</v>
@@ -2905,7 +2913,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B78">
         <v>110077</v>
@@ -2931,7 +2939,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B79">
         <v>110078</v>
@@ -2957,7 +2965,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B80">
         <v>110079</v>
@@ -2983,7 +2991,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B81">
         <v>110080</v>
@@ -3009,7 +3017,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B82">
         <v>110081</v>
@@ -3035,7 +3043,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B83">
         <v>110082</v>
@@ -3061,7 +3069,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B84">
         <v>110083</v>
@@ -3087,7 +3095,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B85">
         <v>110084</v>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86">
-        <v>10008</v>
+        <v>33333</v>
       </c>
       <c r="B86">
         <v>110085</v>
@@ -3138,13 +3146,13 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>10008</v>
-      </c>
-      <c r="B87">
+      <c r="A87" s="1">
+        <v>33333</v>
+      </c>
+      <c r="B87" s="1">
         <v>110086</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="1">
         <v>10083</v>
       </c>
       <c r="D87" t="s">
